--- a/database/insert文/学科コース.xlsx
+++ b/database/insert文/学科コース.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>,</t>
     <phoneticPr fontId="1"/>
@@ -52,15 +52,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>aaaaaaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>INSERT INTO department_cose VALUES (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムエンジニアコース</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -417,7 +421,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -453,20 +457,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="str">
-        <f>CONCATENATE(A3,B3,$A$1,$B$1,C3,$B$1,D3)</f>
-        <v>INSERT INTO department_cose VALUES (1,"aaaaaaaa");</v>
+        <f>CONCATENATE($A$3,B3,$A$1,$B$1,C3,$B$1,$D$3)</f>
+        <v>INSERT INTO department_cose VALUES (null,"システムエンジニアコース");</v>
       </c>
     </row>
   </sheetData>
